--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/15/seed2/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
         <v>-10.94</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.458799999999996</v>
+        <v>-7.548999999999999</v>
       </c>
       <c r="E2" t="n">
         <v>17.25</v>
@@ -485,13 +485,13 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.36329999999999</v>
+        <v>-12.31519999999999</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>15.4392</v>
+        <v>15.57460000000001</v>
       </c>
     </row>
     <row r="4">
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.66730000000003</v>
+        <v>17.20000000000002</v>
       </c>
     </row>
     <row r="13">
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.3934</v>
+        <v>-12.7396</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -791,7 +791,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.33160000000001</v>
+        <v>-12.53120000000001</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.4292</v>
+        <v>-12.5253</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -848,7 +848,7 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.6676</v>
+        <v>16.7894</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-12.8712</v>
+        <v>-12.5858</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.986800000000005</v>
+        <v>-7.902400000000004</v>
       </c>
       <c r="E25" t="n">
-        <v>16.75140000000001</v>
+        <v>16.85910000000001</v>
       </c>
     </row>
     <row r="26">
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.67710000000001</v>
+        <v>-12.52390000000001</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.74280000000001</v>
+        <v>-8.787300000000009</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-10.32560000000002</v>
+        <v>-10.83050000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.760700000000009</v>
+        <v>-8.68260000000001</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-8.042</v>
+        <v>-8.113199999999997</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.597400000000001</v>
+        <v>-7.224599999999997</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.46049999999999</v>
+        <v>16.3473</v>
       </c>
     </row>
     <row r="51">
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.786799999999999</v>
+        <v>-7.574699999999998</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.694500000000002</v>
+        <v>-7.7537</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1335,13 +1335,13 @@
         <v>5.82</v>
       </c>
       <c r="C53" t="n">
-        <v>-11.11150000000001</v>
+        <v>-11.0085</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
       </c>
       <c r="E53" t="n">
-        <v>16.81880000000001</v>
+        <v>16.87920000000002</v>
       </c>
     </row>
     <row r="54">
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.115299999999998</v>
+        <v>-8.387999999999998</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-7.772000000000002</v>
+        <v>-7.865400000000002</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1403,13 +1403,13 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.0572</v>
+        <v>-14.07139999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>-7.929399999999995</v>
+        <v>-7.7451</v>
       </c>
       <c r="E57" t="n">
-        <v>16.81850000000001</v>
+        <v>16.8723</v>
       </c>
     </row>
     <row r="58">
@@ -1437,7 +1437,7 @@
         <v>4.58</v>
       </c>
       <c r="C59" t="n">
-        <v>-12.8267</v>
+        <v>-12.7868</v>
       </c>
       <c r="D59" t="n">
         <v>-9.48</v>
@@ -1477,7 +1477,7 @@
         <v>-7.97</v>
       </c>
       <c r="E61" t="n">
-        <v>16.64140000000001</v>
+        <v>16.53340000000001</v>
       </c>
     </row>
     <row r="62">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>17.78080000000003</v>
+        <v>17.37390000000002</v>
       </c>
     </row>
     <row r="64">
@@ -1607,7 +1607,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.4569</v>
+        <v>-10.8483</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.68000000000002</v>
+        <v>17.30340000000001</v>
       </c>
     </row>
     <row r="71">
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.832499999999999</v>
+        <v>-7.812300000000001</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-10.5555</v>
+        <v>-10.96610000000001</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1845,7 +1845,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.81679999999999</v>
+        <v>-13.91499999999999</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1902,7 +1902,7 @@
         <v>-8.17</v>
       </c>
       <c r="E86" t="n">
-        <v>16.6224</v>
+        <v>16.70229999999999</v>
       </c>
     </row>
     <row r="87">
@@ -1950,7 +1950,7 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-5.738200000000001</v>
+        <v>-5.679400000000004</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1967,7 +1967,7 @@
         <v>-12.06</v>
       </c>
       <c r="D90" t="n">
-        <v>-8.113500000000002</v>
+        <v>-8.308600000000002</v>
       </c>
       <c r="E90" t="n">
         <v>16.68</v>
@@ -1981,7 +1981,7 @@
         <v>4.28</v>
       </c>
       <c r="C91" t="n">
-        <v>-10.33399999999999</v>
+        <v>-10.2953</v>
       </c>
       <c r="D91" t="n">
         <v>-5.79</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-5.850399999999999</v>
+        <v>-5.878700000000002</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2015,7 +2015,7 @@
         <v>7.55</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.8864</v>
+        <v>-11.40020000000001</v>
       </c>
       <c r="D93" t="n">
         <v>-6.1</v>
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>15.3496</v>
+        <v>15.2891</v>
       </c>
     </row>
     <row r="99">
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.88440000000001</v>
+        <v>16.96080000000001</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.66219999999998</v>
+        <v>16.64629999999998</v>
       </c>
     </row>
   </sheetData>
